--- a/data.xlsx
+++ b/data.xlsx
@@ -12,18 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">Test Sincrono </t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>New Test Sun Sep 17 17:18:30 CEST 2023</t>
+    <t>test ritardo in utente interno con utente interno aggiunto da utenti abilitiati Sun Sep 17 18:15:25 CEST 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>delay</t>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
   <si>
     <t>Dipartimenti</t>
@@ -38,100 +44,133 @@
     <t>5</t>
   </si>
   <si>
-    <t>152071990</t>
-  </si>
-  <si>
-    <t>209682524</t>
+    <t>178138967</t>
+  </si>
+  <si>
+    <t>138042205</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>183498356</t>
-  </si>
-  <si>
-    <t>273191849</t>
+    <t>185763775</t>
+  </si>
+  <si>
+    <t>159681725</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>579941823</t>
-  </si>
-  <si>
-    <t>439400725</t>
+    <t>179676342</t>
+  </si>
+  <si>
+    <t>148530784</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>265341725</t>
-  </si>
-  <si>
-    <t>355821419</t>
+    <t>173122793</t>
+  </si>
+  <si>
+    <t>603229064</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>531074162</t>
-  </si>
-  <si>
-    <t>365434212</t>
+    <t>539618033</t>
+  </si>
+  <si>
+    <t>273350579</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>438775765</t>
-  </si>
-  <si>
-    <t>377469856</t>
-  </si>
-  <si>
-    <t>New Test Sun Sep 17 17:21:07 CEST 2023</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>155347803</t>
-  </si>
-  <si>
-    <t>213820011</t>
-  </si>
-  <si>
-    <t>191745218</t>
-  </si>
-  <si>
-    <t>161987236</t>
-  </si>
-  <si>
-    <t>445555503</t>
-  </si>
-  <si>
-    <t>412409794</t>
-  </si>
-  <si>
-    <t>687001521</t>
-  </si>
-  <si>
-    <t>351615370</t>
-  </si>
-  <si>
-    <t>619168788</t>
-  </si>
-  <si>
-    <t>526244977</t>
-  </si>
-  <si>
-    <t>455386436</t>
-  </si>
-  <si>
-    <t>611115961</t>
+    <t>258626970</t>
+  </si>
+  <si>
+    <t>368336766</t>
+  </si>
+  <si>
+    <t>test ritardo in utente interno con utente interno aggiunto da utenti non abilitatio</t>
+  </si>
+  <si>
+    <t>68404711</t>
+  </si>
+  <si>
+    <t>71067293</t>
+  </si>
+  <si>
+    <t>94574312</t>
+  </si>
+  <si>
+    <t>86222234</t>
+  </si>
+  <si>
+    <t>218703766</t>
+  </si>
+  <si>
+    <t>219137069</t>
+  </si>
+  <si>
+    <t>262861201</t>
+  </si>
+  <si>
+    <t>264051165</t>
+  </si>
+  <si>
+    <t>631518703</t>
+  </si>
+  <si>
+    <t>291313646</t>
+  </si>
+  <si>
+    <t>385859716</t>
+  </si>
+  <si>
+    <t>508126745</t>
+  </si>
+  <si>
+    <t>test ritardo in utente esterno</t>
+  </si>
+  <si>
+    <t>161605529</t>
+  </si>
+  <si>
+    <t>216273140</t>
+  </si>
+  <si>
+    <t>404643949</t>
+  </si>
+  <si>
+    <t>163682244</t>
+  </si>
+  <si>
+    <t>360071305</t>
+  </si>
+  <si>
+    <t>152198770</t>
+  </si>
+  <si>
+    <t>205484064</t>
+  </si>
+  <si>
+    <t>152545471</t>
+  </si>
+  <si>
+    <t>193407046</t>
+  </si>
+  <si>
+    <t>149533906</t>
+  </si>
+  <si>
+    <t>366816316</t>
+  </si>
+  <si>
+    <t>1096872335</t>
   </si>
 </sst>
 </file>
@@ -186,228 +225,348 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
